--- a/Assets/_DeepChat/Data/Excel/DesignerConfig.xlsx
+++ b/Assets/_DeepChat/Data/Excel/DesignerConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tangxin/RiderProjects/LD57/Assets/_DeepChat/Data/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571D91CE-633D-9A44-9515-B0C849DDFA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102DEC84-D129-2946-8744-E39282D2615E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1540" windowWidth="24960" windowHeight="12120" activeTab="1" xr2:uid="{472C8CED-FEAA-C74E-954B-785177F8A580}"/>
+    <workbookView xWindow="4440" yWindow="1540" windowWidth="24960" windowHeight="12120" xr2:uid="{472C8CED-FEAA-C74E-954B-785177F8A580}"/>
   </bookViews>
   <sheets>
     <sheet name="WordSheet" sheetId="1" r:id="rId1"/>
@@ -575,9 +575,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(◍•ᴗ•◍)ﾉ♡</t>
-  </si>
-  <si>
     <r>
       <t>(=</t>
     </r>
@@ -1463,6 +1460,67 @@
         <scheme val="minor"/>
       </rPr>
       <t>)Σ(°△°|||)︴Σ(°△°|||)︴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>•ᴗ•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♡</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1471,7 +1529,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1716,6 +1774,19 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF191B1F"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF191B1F"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2116,8 +2187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518EDFA6-105A-A34F-982F-8A94BE55A519}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2169,7 +2240,7 @@
     </row>
     <row r="4" spans="1:4" ht="18">
       <c r="B4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2180,7 +2251,7 @@
     </row>
     <row r="5" spans="1:4" ht="18">
       <c r="B5" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2191,7 +2262,7 @@
     </row>
     <row r="6" spans="1:4" ht="18">
       <c r="B6" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2202,7 +2273,7 @@
     </row>
     <row r="7" spans="1:4" ht="26">
       <c r="B7" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2216,7 +2287,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2255,7 +2326,7 @@
     </row>
     <row r="11" spans="1:4" ht="20">
       <c r="B11" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2269,7 +2340,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2280,7 +2351,7 @@
     </row>
     <row r="13" spans="1:4" ht="18">
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2289,9 +2360,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18">
+    <row r="14" spans="1:4" ht="21">
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2302,7 +2373,7 @@
     </row>
     <row r="15" spans="1:4" ht="18">
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2313,7 +2384,7 @@
     </row>
     <row r="16" spans="1:4" ht="18">
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2324,7 +2395,7 @@
     </row>
     <row r="17" spans="2:4" ht="18">
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2335,7 +2406,7 @@
     </row>
     <row r="18" spans="2:4" ht="18">
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2346,7 +2417,7 @@
     </row>
     <row r="19" spans="2:4" ht="18">
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2357,7 +2428,7 @@
     </row>
     <row r="20" spans="2:4" ht="18">
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="8">
         <v>1</v>
@@ -2368,7 +2439,7 @@
     </row>
     <row r="21" spans="2:4" ht="18">
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
@@ -2379,7 +2450,7 @@
     </row>
     <row r="22" spans="2:4" ht="18">
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="8">
         <v>1</v>
@@ -2390,7 +2461,7 @@
     </row>
     <row r="23" spans="2:4" ht="18">
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="8">
         <v>1</v>
@@ -2401,7 +2472,7 @@
     </row>
     <row r="24" spans="2:4" ht="18">
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="8">
         <v>1</v>
@@ -2412,7 +2483,7 @@
     </row>
     <row r="25" spans="2:4" ht="18">
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="8">
         <v>1</v>
@@ -2423,7 +2494,7 @@
     </row>
     <row r="26" spans="2:4" ht="19">
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="8">
         <v>1</v>
@@ -2434,7 +2505,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="8">
         <v>1</v>
@@ -2445,7 +2516,7 @@
     </row>
     <row r="28" spans="2:4" ht="19">
       <c r="B28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="8">
         <v>1</v>
@@ -2456,7 +2527,7 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -2467,7 +2538,7 @@
     </row>
     <row r="30" spans="2:4" ht="19">
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
@@ -2478,7 +2549,7 @@
     </row>
     <row r="31" spans="2:4" ht="19">
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="8">
         <v>1</v>
@@ -2489,7 +2560,7 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="8">
         <v>1</v>
@@ -2500,7 +2571,7 @@
     </row>
     <row r="33" spans="2:4" ht="19">
       <c r="B33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="8">
         <v>1</v>
@@ -2511,7 +2582,7 @@
     </row>
     <row r="34" spans="2:4" ht="19">
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="8">
         <v>1</v>
@@ -2522,7 +2593,7 @@
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="8">
         <v>1</v>
@@ -2533,7 +2604,7 @@
     </row>
     <row r="36" spans="2:4" ht="19">
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
@@ -2544,7 +2615,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="8">
         <v>1</v>
@@ -2555,7 +2626,7 @@
     </row>
     <row r="38" spans="2:4" ht="19">
       <c r="B38" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
@@ -2566,7 +2637,7 @@
     </row>
     <row r="39" spans="2:4" ht="19">
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="8">
         <v>1</v>
@@ -2577,7 +2648,7 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="8">
         <v>1</v>
@@ -2588,7 +2659,7 @@
     </row>
     <row r="41" spans="2:4" ht="19">
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="8">
         <v>1</v>
@@ -2599,7 +2670,7 @@
     </row>
     <row r="42" spans="2:4" ht="18">
       <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="8">
         <v>1</v>
@@ -2610,7 +2681,7 @@
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="8">
         <v>1</v>
@@ -2621,7 +2692,7 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="8">
         <v>1</v>
@@ -2632,7 +2703,7 @@
     </row>
     <row r="45" spans="2:4" s="5" customFormat="1">
       <c r="B45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="8">
         <v>1</v>
@@ -2643,7 +2714,7 @@
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="8">
         <v>1</v>
@@ -2654,7 +2725,7 @@
     </row>
     <row r="47" spans="2:4" s="5" customFormat="1">
       <c r="B47" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" s="8">
         <v>1</v>
@@ -2665,7 +2736,7 @@
     </row>
     <row r="48" spans="2:4" s="5" customFormat="1" ht="19">
       <c r="B48" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" s="8">
         <v>2</v>
@@ -2676,7 +2747,7 @@
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="8">
         <v>2</v>
@@ -2687,7 +2758,7 @@
     </row>
     <row r="50" spans="2:4" ht="19">
       <c r="B50" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="8">
         <v>2</v>
@@ -2698,7 +2769,7 @@
     </row>
     <row r="51" spans="2:4" ht="19">
       <c r="B51" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C51" s="8">
         <v>2</v>
@@ -2709,7 +2780,7 @@
     </row>
     <row r="52" spans="2:4" ht="19">
       <c r="B52" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C52" s="8">
         <v>2</v>
@@ -2720,7 +2791,7 @@
     </row>
     <row r="53" spans="2:4" ht="19">
       <c r="B53" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C53" s="8">
         <v>2</v>
@@ -2731,7 +2802,7 @@
     </row>
     <row r="54" spans="2:4" ht="19">
       <c r="B54" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C54" s="8">
         <v>2</v>
@@ -2742,7 +2813,7 @@
     </row>
     <row r="55" spans="2:4" ht="19">
       <c r="B55" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C55" s="8">
         <v>2</v>
@@ -2753,7 +2824,7 @@
     </row>
     <row r="56" spans="2:4" ht="18">
       <c r="B56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" s="8">
         <v>2</v>
@@ -2764,7 +2835,7 @@
     </row>
     <row r="57" spans="2:4" ht="18">
       <c r="B57" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C57" s="8">
         <v>2</v>
@@ -2775,7 +2846,7 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C58" s="8">
         <v>2</v>
@@ -2786,7 +2857,7 @@
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" s="8">
         <v>2</v>
@@ -2797,7 +2868,7 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C60" s="8">
         <v>2</v>
@@ -2808,7 +2879,7 @@
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61" s="8">
         <v>2</v>
@@ -2819,7 +2890,7 @@
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C62" s="8">
         <v>2</v>
@@ -2830,7 +2901,7 @@
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C63" s="8">
         <v>2</v>
@@ -2841,7 +2912,7 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C64" s="8">
         <v>2</v>
@@ -2852,7 +2923,7 @@
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C65" s="8">
         <v>2</v>
@@ -2863,7 +2934,7 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C66" s="8">
         <v>2</v>
@@ -2874,7 +2945,7 @@
     </row>
     <row r="67" spans="2:4" ht="18">
       <c r="B67" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C67" s="8">
         <v>2</v>
@@ -2885,7 +2956,7 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" s="8">
         <v>2</v>
@@ -2896,7 +2967,7 @@
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" s="8">
         <v>2</v>
@@ -2907,7 +2978,7 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C70" s="8">
         <v>2</v>
@@ -2918,7 +2989,7 @@
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71" s="8">
         <v>2</v>
@@ -2929,7 +3000,7 @@
     </row>
     <row r="72" spans="2:4" ht="18">
       <c r="B72" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" s="8">
         <v>2</v>
@@ -2940,7 +3011,7 @@
     </row>
     <row r="73" spans="2:4" ht="18">
       <c r="B73" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73" s="8">
         <v>2</v>
@@ -2951,7 +3022,7 @@
     </row>
     <row r="74" spans="2:4" ht="18">
       <c r="B74" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74" s="8">
         <v>2</v>
@@ -2962,7 +3033,7 @@
     </row>
     <row r="75" spans="2:4" ht="18">
       <c r="B75" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75" s="8">
         <v>2</v>
@@ -2973,7 +3044,7 @@
     </row>
     <row r="76" spans="2:4" ht="18">
       <c r="B76" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76" s="8">
         <v>2</v>
@@ -2984,7 +3055,7 @@
     </row>
     <row r="77" spans="2:4" ht="18">
       <c r="B77" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77" s="8">
         <v>2</v>
@@ -3003,7 +3074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF7F340-2B9A-944D-BA97-82710375EFC1}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3028,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -3039,7 +3110,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3061,7 +3132,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3072,7 +3143,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3083,7 +3154,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>1</v>

--- a/Assets/_DeepChat/Data/Excel/DesignerConfig.xlsx
+++ b/Assets/_DeepChat/Data/Excel/DesignerConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tangxin/RiderProjects/LD57/Assets/_DeepChat/Data/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102DEC84-D129-2946-8744-E39282D2615E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A6CF53-46A0-6F4D-8923-261159EC1B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1540" windowWidth="24960" windowHeight="12120" xr2:uid="{472C8CED-FEAA-C74E-954B-785177F8A580}"/>
+    <workbookView xWindow="4440" yWindow="1540" windowWidth="24960" windowHeight="12120" activeTab="1" xr2:uid="{472C8CED-FEAA-C74E-954B-785177F8A580}"/>
   </bookViews>
   <sheets>
     <sheet name="WordSheet" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>Emotion</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,14 +171,359 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Angsana New"/>
-        <family val="2"/>
+      <t>(=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ฅ</t>
+      <t>｀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ω´=)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(=^･ｪ･^=)</t>
+  </si>
+  <si>
+    <t>(^._.^)ﾉ</t>
+  </si>
+  <si>
+    <t>(=^‥^=)</t>
+  </si>
+  <si>
+    <t>(⁎˃ᆺ˂)</t>
+  </si>
+  <si>
+    <t>(≧◡≦) ♡</t>
+  </si>
+  <si>
+    <t>(⁄ ⁄•⁄ω⁄•⁄ ⁄)</t>
+  </si>
+  <si>
+    <t>(๑&gt;ᴗ&lt;๑)</t>
+  </si>
+  <si>
+    <t>(*°▽°*)</t>
+  </si>
+  <si>
+    <t>(✧ω✧)</t>
+  </si>
+  <si>
+    <t>(*´∀`*)</t>
+  </si>
+  <si>
+    <t>(๑¯∀¯๑)</t>
+  </si>
+  <si>
+    <t>～(^з^)-☆</t>
+  </si>
+  <si>
+    <t>( ˘ ³˘)♥</t>
+  </si>
+  <si>
+    <t>(っ˘ω˘ς )</t>
+  </si>
+  <si>
+    <t>(づ￣ ³￣)づ</t>
+  </si>
+  <si>
+    <t>(ノ・ω・)ノ</t>
+  </si>
+  <si>
+    <t>(≧∇≦)/</t>
+  </si>
+  <si>
+    <t>(⌒▽⌒)☆</t>
+  </si>
+  <si>
+    <t>(ﾉ≧∀≦)ﾉ</t>
+  </si>
+  <si>
+    <t>(｡•́︿•̀｡)</t>
+  </si>
+  <si>
+    <t>Σ(°Д°;</t>
+  </si>
+  <si>
+    <t>(°ロ°) !?</t>
+  </si>
+  <si>
+    <t>(ﾟДﾟ≡ﾟдﾟ)!?</t>
+  </si>
+  <si>
+    <t>(⊙_◎)</t>
+  </si>
+  <si>
+    <t>(⊙ˍ⊙)</t>
+  </si>
+  <si>
+    <t>(」°ロ°)」</t>
+  </si>
+  <si>
+    <t>(ﾟ⊿ﾟ)ﾂ</t>
+  </si>
+  <si>
+    <t>( ´•̥̥̥ω•̥̥̥` )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ˃̣̣̥᷄⌓˂̣̣̥᷅ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ԅ(≖‿≖ԅ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ര‿ര)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(⊙_⊙)?</t>
+  </si>
+  <si>
+    <t>Σ(☉▽☉</t>
+  </si>
+  <si>
+    <t>o(╥﹏╥)o</t>
+  </si>
+  <si>
+    <t>(⊙︿⊙)</t>
+  </si>
+  <si>
+    <t>┗( ´・∧・｀)┛</t>
+  </si>
+  <si>
+    <t>┌(。Д。)┐</t>
+  </si>
+  <si>
+    <t>_(:з」∠)_</t>
+  </si>
+  <si>
+    <t>(ΩДΩ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(●￣(ｴ)￣●)</t>
+  </si>
+  <si>
+    <t>( Ĭ ^ Ĭ )</t>
+  </si>
+  <si>
+    <t>⁄(⁄ ⁄•⁄ω⁄•⁄ ⁄)⁄</t>
+  </si>
+  <si>
+    <t>∑(￣□￣)</t>
+  </si>
+  <si>
+    <t>(✿◡‿◡)</t>
+  </si>
+  <si>
+    <t>(≧﹀≦)</t>
+  </si>
+  <si>
+    <t>~(￣▽￣)~*</t>
+  </si>
+  <si>
+    <t>✿ヽ(°▽°)ノ✿</t>
+  </si>
+  <si>
+    <t>‍(┬┬﹏┬┬)</t>
+  </si>
+  <si>
+    <t>ｸﾞｯ!(๑•̀ㅂ•́)و✧</t>
+  </si>
+  <si>
+    <t>(๑• . •๑)</t>
+  </si>
+  <si>
+    <t>Ծ‸Ծ</t>
+  </si>
+  <si>
+    <t>(ฅ&gt;ω&lt;*ฅ)</t>
+  </si>
+  <si>
+    <t>|ω•`)</t>
+  </si>
+  <si>
+    <t>ଘ(੭ˊ꒳ˋ)੭✧</t>
+  </si>
+  <si>
+    <t>(꒪꒫꒪ )</t>
+  </si>
+  <si>
+    <t>｡ﾟ(ﾟ´Д｀ﾟ)ﾟ｡</t>
+  </si>
+  <si>
+    <t>o(*≧▽≦)ツ</t>
+  </si>
+  <si>
+    <t>- ̗̀(๑ᵔ⌔ᵔ๑)εïз</t>
+  </si>
+  <si>
+    <t>(๑ơ ₃ ơ)♥ ♡(˃͈ દ ˂͈ ༶ )</t>
+  </si>
+  <si>
+    <t>૮(˶ᵔ ᵕ ᵔ˶)ა</t>
+  </si>
+  <si>
+    <t>(っ´ω`)ﾉ(╥ω╥)</t>
+  </si>
+  <si>
+    <t>｡･ﾟ･(ﾉД`)ヽ(￣ω￣ )</t>
+  </si>
+  <si>
+    <t>.･ﾟﾟ･(／ω＼)･ﾟﾟ･.</t>
+  </si>
+  <si>
+    <t>｡･ﾟﾟ*(&gt;д&lt;)*ﾟﾟ･｡</t>
+  </si>
+  <si>
+    <t>.｡･ﾟﾟ･(＞_＜)･ﾟﾟ･｡.</t>
+  </si>
+  <si>
+    <t>Σ(°△°|||)︴</t>
+  </si>
+  <si>
+    <t>＼(＾∀＾)メ(＾∀＾)ノ</t>
+  </si>
+  <si>
+    <t>ヾ(・ω・`)ノヾ(´・ω・)ノ゛</t>
+  </si>
+  <si>
+    <t>☆ヾ(*´・∀・)ﾉヾ(・∀・`*)ﾉ☆</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>•ᴗ•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>( ´•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>̥̥̥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>ω•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>̥̥̥</t>
     </r>
     <r>
       <rPr>
@@ -189,17 +534,44 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Angsana New"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>๑</t>
+      <t>` )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>( ´•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>̥̥̥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>ω•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>̥̥̥</t>
     </r>
     <r>
       <rPr>
@@ -210,80 +582,15 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>̀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Batang"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ㅅ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>́</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Angsana New"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>๑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Angsana New"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ฅ</t>
-    </r>
+      <t>` )</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Σ(°△°|||)︴Σ(°△°|||)︴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -576,932 +883,377 @@
   </si>
   <si>
     <r>
-      <t>(=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>｀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
+      <t>ヾ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>ω´=)</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>`)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ノヾ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(´</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ノ</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(=^･ｪ･^=)</t>
-  </si>
-  <si>
-    <t>(^._.^)ﾉ</t>
-  </si>
-  <si>
-    <t>(=^‥^=)</t>
-  </si>
-  <si>
-    <t>(⁎˃ᆺ˂)</t>
-  </si>
-  <si>
-    <t>(≧◡≦) ♡</t>
-  </si>
-  <si>
-    <t>(⁄ ⁄•⁄ω⁄•⁄ ⁄)</t>
-  </si>
-  <si>
-    <t>(๑&gt;ᴗ&lt;๑)</t>
-  </si>
-  <si>
-    <t>(*°▽°*)</t>
-  </si>
-  <si>
-    <t>(✧ω✧)</t>
-  </si>
-  <si>
-    <t>(*´∀`*)</t>
-  </si>
-  <si>
-    <t>(๑¯∀¯๑)</t>
-  </si>
-  <si>
-    <t>～(^з^)-☆</t>
-  </si>
-  <si>
-    <t>( ˘ ³˘)♥</t>
-  </si>
-  <si>
-    <t>(っ˘ω˘ς )</t>
-  </si>
-  <si>
-    <t>(づ￣ ³￣)づ</t>
-  </si>
-  <si>
-    <t>(ノ・ω・)ノ</t>
-  </si>
-  <si>
-    <t>(≧∇≦)/</t>
-  </si>
-  <si>
-    <t>(⌒▽⌒)☆</t>
-  </si>
-  <si>
-    <t>(ﾉ≧∀≦)ﾉ</t>
-  </si>
-  <si>
-    <t>(｡•́︿•̀｡)</t>
-  </si>
-  <si>
-    <t>Σ(°Д°;</t>
-  </si>
-  <si>
-    <t>(°ロ°) !?</t>
-  </si>
-  <si>
-    <t>(ﾟДﾟ≡ﾟдﾟ)!?</t>
-  </si>
-  <si>
-    <t>(⊙_◎)</t>
-  </si>
-  <si>
-    <t>(⊙ˍ⊙)</t>
-  </si>
-  <si>
-    <t>(」°ロ°)」</t>
-  </si>
-  <si>
-    <t>(ﾟ⊿ﾟ)ﾂ</t>
-  </si>
-  <si>
-    <t>( ´•̥̥̥ω•̥̥̥` )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ˃̣̣̥᷄⌓˂̣̣̥᷅ </t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>゛(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᴗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)ﾉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>゛(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᴗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)ﾉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♡</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ԅ(≖‿≖ԅ)</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>゛(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᴗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)ﾉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(⁄ ⁄•⁄ω⁄•⁄ ⁄)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="BatangChe"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>♡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ര‿ര)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(⊙_⊙)?</t>
-  </si>
-  <si>
-    <t>Σ(☉▽☉</t>
-  </si>
-  <si>
-    <t>o(╥﹏╥)o</t>
-  </si>
-  <si>
-    <t>(⊙︿⊙)</t>
-  </si>
-  <si>
-    <t>┗( ´・∧・｀)┛</t>
-  </si>
-  <si>
-    <t>┌(。Д。)┐</t>
-  </si>
-  <si>
-    <t>_(:з」∠)_</t>
-  </si>
-  <si>
-    <t>(ΩДΩ)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(●￣(ｴ)￣●)</t>
-  </si>
-  <si>
-    <t>( Ĭ ^ Ĭ )</t>
-  </si>
-  <si>
-    <t>⁄(⁄ ⁄•⁄ω⁄•⁄ ⁄)⁄</t>
-  </si>
-  <si>
-    <t>∑(￣□￣)</t>
-  </si>
-  <si>
-    <t>(✿◡‿◡)</t>
-  </si>
-  <si>
-    <t>(≧﹀≦)</t>
-  </si>
-  <si>
-    <t>~(￣▽￣)~*</t>
-  </si>
-  <si>
-    <t>✿ヽ(°▽°)ノ✿</t>
-  </si>
-  <si>
-    <t>‍(┬┬﹏┬┬)</t>
-  </si>
-  <si>
-    <t>ｸﾞｯ!(๑•̀ㅂ•́)و✧</t>
-  </si>
-  <si>
-    <t>(๑• . •๑)</t>
-  </si>
-  <si>
-    <t>Ծ‸Ծ</t>
-  </si>
-  <si>
-    <t>(ฅ&gt;ω&lt;*ฅ)</t>
-  </si>
-  <si>
-    <t>|ω•`)</t>
-  </si>
-  <si>
-    <t>ଘ(੭ˊ꒳ˋ)੭✧</t>
-  </si>
-  <si>
-    <t>(꒪꒫꒪ )</t>
-  </si>
-  <si>
-    <t>｡ﾟ(ﾟ´Д｀ﾟ)ﾟ｡</t>
-  </si>
-  <si>
-    <t>o(*≧▽≦)ツ</t>
-  </si>
-  <si>
-    <t>- ̗̀(๑ᵔ⌔ᵔ๑)εïз</t>
-  </si>
-  <si>
-    <t>(๑ơ ₃ ơ)♥ ♡(˃͈ દ ˂͈ ༶ )</t>
-  </si>
-  <si>
-    <t>૮(˶ᵔ ᵕ ᵔ˶)ა</t>
-  </si>
-  <si>
-    <t>(っ´ω`)ﾉ(╥ω╥)</t>
-  </si>
-  <si>
-    <t>｡･ﾟ･(ﾉД`)ヽ(￣ω￣ )</t>
-  </si>
-  <si>
-    <t>.･ﾟﾟ･(／ω＼)･ﾟﾟ･.</t>
-  </si>
-  <si>
-    <t>｡･ﾟﾟ*(&gt;д&lt;)*ﾟﾟ･｡</t>
-  </si>
-  <si>
-    <t>.｡･ﾟﾟ･(＞_＜)･ﾟﾟ･｡.</t>
-  </si>
-  <si>
-    <t>Σ(°△°|||)︴</t>
-  </si>
-  <si>
-    <t>＼(＾∀＾)メ(＾∀＾)ノ</t>
-  </si>
-  <si>
-    <t>ヾ(・ω・`)ノヾ(´・ω・)ノ゛</t>
-  </si>
-  <si>
-    <t>☆ヾ(*´・∀・)ﾉヾ(・∀・`*)ﾉ☆</t>
-  </si>
-  <si>
-    <r>
-      <t>QAQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-      </rPr>
-      <t>( ´•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>̥̥̥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t>ω•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>̥̥̥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>` )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-      </rPr>
-      <t>( ´•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>̥̥̥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t>ω•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>̥̥̥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>` )QAQ</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ヾ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ω</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>`)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ノヾ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(´</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ω</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ノ゛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>◍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>•ᴗ•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>◍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ﾉ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>♡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ヾ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ω</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>`)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ノヾ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(´</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ω</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ノ゛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(=^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>‥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>^=)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ヾ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ω</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>`)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ノヾ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(´</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ω</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ノ゛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(⁄ ⁄•⁄ω⁄•⁄ ⁄)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Σ(;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ﾟ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>д</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ﾟ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)Σ(°△°|||)︴Σ(°△°|||)︴</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>◍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>•ᴗ•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>◍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
+      <t>Σ(</t>
     </r>
     <r>
       <rPr>
@@ -1511,16 +1263,149 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>ﾉ</t>
+      <t>ﾟ</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color rgb="FF191B1F"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>♡</t>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>д</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>lll)Σ(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>д</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>lll)Σ(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>д</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>lll)Σ(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>д</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>lll)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1529,7 +1414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1558,40 +1443,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Angsana New"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Batang"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1770,13 +1627,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF191B1F"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
@@ -1787,6 +1637,19 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF191B1F"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1811,14 +1674,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1830,22 +1705,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2187,7 +2059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518EDFA6-105A-A34F-982F-8A94BE55A519}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2240,7 +2112,7 @@
     </row>
     <row r="4" spans="1:4" ht="18">
       <c r="B4" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2251,7 +2123,7 @@
     </row>
     <row r="5" spans="1:4" ht="18">
       <c r="B5" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2262,7 +2134,7 @@
     </row>
     <row r="6" spans="1:4" ht="18">
       <c r="B6" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2273,7 +2145,7 @@
     </row>
     <row r="7" spans="1:4" ht="26">
       <c r="B7" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2287,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2326,7 +2198,7 @@
     </row>
     <row r="11" spans="1:4" ht="20">
       <c r="B11" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2340,7 +2212,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2351,7 +2223,7 @@
     </row>
     <row r="13" spans="1:4" ht="18">
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2362,7 +2234,7 @@
     </row>
     <row r="14" spans="1:4" ht="21">
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2373,7 +2245,7 @@
     </row>
     <row r="15" spans="1:4" ht="18">
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2384,7 +2256,7 @@
     </row>
     <row r="16" spans="1:4" ht="18">
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2395,7 +2267,7 @@
     </row>
     <row r="17" spans="2:4" ht="18">
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2406,7 +2278,7 @@
     </row>
     <row r="18" spans="2:4" ht="18">
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2417,7 +2289,7 @@
     </row>
     <row r="19" spans="2:4" ht="18">
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2428,7 +2300,7 @@
     </row>
     <row r="20" spans="2:4" ht="18">
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="8">
         <v>1</v>
@@ -2439,7 +2311,7 @@
     </row>
     <row r="21" spans="2:4" ht="18">
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
@@ -2450,7 +2322,7 @@
     </row>
     <row r="22" spans="2:4" ht="18">
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="8">
         <v>1</v>
@@ -2461,7 +2333,7 @@
     </row>
     <row r="23" spans="2:4" ht="18">
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="8">
         <v>1</v>
@@ -2472,7 +2344,7 @@
     </row>
     <row r="24" spans="2:4" ht="18">
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="8">
         <v>1</v>
@@ -2483,7 +2355,7 @@
     </row>
     <row r="25" spans="2:4" ht="18">
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="8">
         <v>1</v>
@@ -2494,7 +2366,7 @@
     </row>
     <row r="26" spans="2:4" ht="19">
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="8">
         <v>1</v>
@@ -2505,7 +2377,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="8">
         <v>1</v>
@@ -2516,7 +2388,7 @@
     </row>
     <row r="28" spans="2:4" ht="19">
       <c r="B28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="8">
         <v>1</v>
@@ -2527,7 +2399,7 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -2538,7 +2410,7 @@
     </row>
     <row r="30" spans="2:4" ht="19">
       <c r="B30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
@@ -2549,7 +2421,7 @@
     </row>
     <row r="31" spans="2:4" ht="19">
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="8">
         <v>1</v>
@@ -2560,7 +2432,7 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="8">
         <v>1</v>
@@ -2571,7 +2443,7 @@
     </row>
     <row r="33" spans="2:4" ht="19">
       <c r="B33" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="8">
         <v>1</v>
@@ -2582,7 +2454,7 @@
     </row>
     <row r="34" spans="2:4" ht="19">
       <c r="B34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="8">
         <v>1</v>
@@ -2593,7 +2465,7 @@
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="8">
         <v>1</v>
@@ -2604,7 +2476,7 @@
     </row>
     <row r="36" spans="2:4" ht="19">
       <c r="B36" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
@@ -2615,7 +2487,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="8">
         <v>1</v>
@@ -2626,7 +2498,7 @@
     </row>
     <row r="38" spans="2:4" ht="19">
       <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
@@ -2637,7 +2509,7 @@
     </row>
     <row r="39" spans="2:4" ht="19">
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="8">
         <v>1</v>
@@ -2648,7 +2520,7 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="8">
         <v>1</v>
@@ -2659,7 +2531,7 @@
     </row>
     <row r="41" spans="2:4" ht="19">
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="8">
         <v>1</v>
@@ -2670,7 +2542,7 @@
     </row>
     <row r="42" spans="2:4" ht="18">
       <c r="B42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" s="8">
         <v>1</v>
@@ -2681,7 +2553,7 @@
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="8">
         <v>1</v>
@@ -2692,7 +2564,7 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="8">
         <v>1</v>
@@ -2703,7 +2575,7 @@
     </row>
     <row r="45" spans="2:4" s="5" customFormat="1">
       <c r="B45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="8">
         <v>1</v>
@@ -2714,7 +2586,7 @@
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="8">
         <v>1</v>
@@ -2725,7 +2597,7 @@
     </row>
     <row r="47" spans="2:4" s="5" customFormat="1">
       <c r="B47" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" s="8">
         <v>1</v>
@@ -2736,7 +2608,7 @@
     </row>
     <row r="48" spans="2:4" s="5" customFormat="1" ht="19">
       <c r="B48" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" s="8">
         <v>2</v>
@@ -2747,7 +2619,7 @@
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="8">
         <v>2</v>
@@ -2758,7 +2630,7 @@
     </row>
     <row r="50" spans="2:4" ht="19">
       <c r="B50" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" s="8">
         <v>2</v>
@@ -2769,7 +2641,7 @@
     </row>
     <row r="51" spans="2:4" ht="19">
       <c r="B51" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="8">
         <v>2</v>
@@ -2780,7 +2652,7 @@
     </row>
     <row r="52" spans="2:4" ht="19">
       <c r="B52" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" s="8">
         <v>2</v>
@@ -2791,7 +2663,7 @@
     </row>
     <row r="53" spans="2:4" ht="19">
       <c r="B53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" s="8">
         <v>2</v>
@@ -2802,7 +2674,7 @@
     </row>
     <row r="54" spans="2:4" ht="19">
       <c r="B54" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54" s="8">
         <v>2</v>
@@ -2813,7 +2685,7 @@
     </row>
     <row r="55" spans="2:4" ht="19">
       <c r="B55" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" s="8">
         <v>2</v>
@@ -2824,7 +2696,7 @@
     </row>
     <row r="56" spans="2:4" ht="18">
       <c r="B56" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C56" s="8">
         <v>2</v>
@@ -2835,7 +2707,7 @@
     </row>
     <row r="57" spans="2:4" ht="18">
       <c r="B57" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C57" s="8">
         <v>2</v>
@@ -2846,7 +2718,7 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C58" s="8">
         <v>2</v>
@@ -2857,7 +2729,7 @@
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C59" s="8">
         <v>2</v>
@@ -2868,7 +2740,7 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C60" s="8">
         <v>2</v>
@@ -2879,7 +2751,7 @@
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C61" s="8">
         <v>2</v>
@@ -2890,7 +2762,7 @@
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C62" s="8">
         <v>2</v>
@@ -2901,7 +2773,7 @@
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C63" s="8">
         <v>2</v>
@@ -2912,7 +2784,7 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C64" s="8">
         <v>2</v>
@@ -2923,7 +2795,7 @@
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C65" s="8">
         <v>2</v>
@@ -2934,7 +2806,7 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C66" s="8">
         <v>2</v>
@@ -2945,7 +2817,7 @@
     </row>
     <row r="67" spans="2:4" ht="18">
       <c r="B67" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" s="8">
         <v>2</v>
@@ -2956,7 +2828,7 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="8">
         <v>2</v>
@@ -2967,7 +2839,7 @@
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C69" s="8">
         <v>2</v>
@@ -2978,7 +2850,7 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="8">
         <v>2</v>
@@ -2989,7 +2861,7 @@
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" s="8">
         <v>2</v>
@@ -3000,7 +2872,7 @@
     </row>
     <row r="72" spans="2:4" ht="18">
       <c r="B72" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="8">
         <v>2</v>
@@ -3011,7 +2883,7 @@
     </row>
     <row r="73" spans="2:4" ht="18">
       <c r="B73" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="8">
         <v>2</v>
@@ -3022,7 +2894,7 @@
     </row>
     <row r="74" spans="2:4" ht="18">
       <c r="B74" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="8">
         <v>2</v>
@@ -3033,7 +2905,7 @@
     </row>
     <row r="75" spans="2:4" ht="18">
       <c r="B75" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="8">
         <v>2</v>
@@ -3044,7 +2916,7 @@
     </row>
     <row r="76" spans="2:4" ht="18">
       <c r="B76" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="8">
         <v>2</v>
@@ -3055,7 +2927,7 @@
     </row>
     <row r="77" spans="2:4" ht="18">
       <c r="B77" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="8">
         <v>2</v>
@@ -3072,10 +2944,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF7F340-2B9A-944D-BA97-82710375EFC1}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -3110,7 +2982,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3120,8 +2992,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -3132,7 +3004,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3143,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3153,11 +3025,22 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>82</v>
+      <c r="B7" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="C7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_DeepChat/Data/Excel/DesignerConfig.xlsx
+++ b/Assets/_DeepChat/Data/Excel/DesignerConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tangxin/RiderProjects/LD57/Assets/_DeepChat/Data/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A6CF53-46A0-6F4D-8923-261159EC1B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BD757B-A5BC-A442-8E1C-81DD83FE0929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1540" windowWidth="24960" windowHeight="12120" activeTab="1" xr2:uid="{472C8CED-FEAA-C74E-954B-785177F8A580}"/>
+    <workbookView xWindow="4440" yWindow="1540" windowWidth="24960" windowHeight="12120" xr2:uid="{472C8CED-FEAA-C74E-954B-785177F8A580}"/>
   </bookViews>
   <sheets>
     <sheet name="WordSheet" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
   <si>
     <t>Emotion</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1406,6 +1406,320 @@
         <family val="2"/>
       </rPr>
       <t>lll)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>≧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>≦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>≧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>≦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>≧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>≦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｡･ﾟﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*(&gt;д&lt;)*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟﾟ･｡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｡･ﾟﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*(&gt;д&lt;)*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟﾟ･｡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ծ‸ԾԾ‸ԾԾ‸ԾԾ‸ԾԾ‸ԾԾ‸ԾԾ‸ԾԾ‸ԾԾ‸Ծ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>_(:з</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>∠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)__(:з</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>∠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)__(:з</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>∠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)_</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1414,7 +1728,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1649,6 +1963,25 @@
       <sz val="14"/>
       <color rgb="FF191B1F"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF191B1F"/>
+      <name val="Cambria Math"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF18191C"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF18191C"/>
+      <name val="Cambria Math"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2059,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518EDFA6-105A-A34F-982F-8A94BE55A519}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2111,6 +2444,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" s="11" t="s">
         <v>75</v>
       </c>
@@ -2122,6 +2458,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" s="11" t="s">
         <v>76</v>
       </c>
@@ -2133,6 +2472,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" s="11" t="s">
         <v>77</v>
       </c>
@@ -2144,6 +2486,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="26">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" s="10" t="s">
         <v>68</v>
       </c>
@@ -2156,7 +2501,7 @@
     </row>
     <row r="8" spans="1:4" ht="20">
       <c r="A8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>66</v>
@@ -2170,7 +2515,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -2184,7 +2529,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -2197,6 +2542,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="20">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" s="9" t="s">
         <v>67</v>
       </c>
@@ -2209,7 +2557,7 @@
     </row>
     <row r="12" spans="1:4" ht="20">
       <c r="A12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>65</v>
@@ -2222,6 +2570,9 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2233,6 +2584,9 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>78</v>
       </c>
@@ -2244,6 +2598,9 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -2255,6 +2612,9 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -2265,7 +2625,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="18">
+    <row r="17" spans="1:4" ht="18">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
@@ -2276,7 +2639,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="18">
+    <row r="18" spans="1:4" ht="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
@@ -2287,7 +2653,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="18">
+    <row r="19" spans="1:4" ht="18">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
@@ -2298,7 +2667,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="18">
+    <row r="20" spans="1:4" ht="18">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
@@ -2309,7 +2681,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="18">
+    <row r="21" spans="1:4" ht="18">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
@@ -2320,7 +2695,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="18">
+    <row r="22" spans="1:4" ht="18">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
@@ -2331,7 +2709,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="18">
+    <row r="23" spans="1:4" ht="18">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
@@ -2342,7 +2723,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="18">
+    <row r="24" spans="1:4" ht="18">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2353,7 +2737,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="18">
+    <row r="25" spans="1:4" ht="18">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2364,7 +2751,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="19">
+    <row r="26" spans="1:4" ht="19">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
@@ -2375,7 +2765,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
@@ -2386,7 +2779,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="19">
+    <row r="28" spans="1:4" ht="19">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
       </c>
@@ -2397,7 +2793,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29" s="3" t="s">
         <v>54</v>
       </c>
@@ -2408,7 +2807,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="19">
+    <row r="30" spans="1:4" ht="19">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
@@ -2419,7 +2821,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="19">
+    <row r="31" spans="1:4" ht="19">
+      <c r="A31">
+        <v>30</v>
+      </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
@@ -2430,7 +2835,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="B32" s="3" t="s">
         <v>50</v>
       </c>
@@ -2441,7 +2849,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="19">
+    <row r="33" spans="1:4" ht="19">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="B33" s="2" t="s">
         <v>24</v>
       </c>
@@ -2452,7 +2863,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="19">
+    <row r="34" spans="1:4" ht="19">
+      <c r="A34">
+        <v>33</v>
+      </c>
       <c r="B34" s="2" t="s">
         <v>25</v>
       </c>
@@ -2463,7 +2877,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
       <c r="B35" s="3" t="s">
         <v>48</v>
       </c>
@@ -2474,7 +2891,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="19">
+    <row r="36" spans="1:4" ht="19">
+      <c r="A36">
+        <v>35</v>
+      </c>
       <c r="B36" s="2" t="s">
         <v>26</v>
       </c>
@@ -2485,7 +2905,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
       <c r="B37" s="3" t="s">
         <v>52</v>
       </c>
@@ -2496,7 +2919,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="19">
+    <row r="38" spans="1:4" ht="19">
+      <c r="A38">
+        <v>37</v>
+      </c>
       <c r="B38" s="2" t="s">
         <v>27</v>
       </c>
@@ -2507,7 +2933,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="19">
+    <row r="39" spans="1:4" ht="19">
+      <c r="A39">
+        <v>38</v>
+      </c>
       <c r="B39" s="2" t="s">
         <v>39</v>
       </c>
@@ -2518,7 +2947,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>39</v>
+      </c>
       <c r="B40" s="3" t="s">
         <v>55</v>
       </c>
@@ -2529,7 +2961,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="19">
+    <row r="41" spans="1:4" ht="19">
+      <c r="A41">
+        <v>40</v>
+      </c>
       <c r="B41" s="2" t="s">
         <v>38</v>
       </c>
@@ -2540,7 +2975,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="18">
+    <row r="42" spans="1:4" ht="18">
+      <c r="A42">
+        <v>41</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>28</v>
       </c>
@@ -2551,7 +2989,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>42</v>
+      </c>
       <c r="B43" s="7" t="s">
         <v>57</v>
       </c>
@@ -2562,7 +3003,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>43</v>
+      </c>
       <c r="B44" s="7" t="s">
         <v>58</v>
       </c>
@@ -2573,7 +3017,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:4" s="5" customFormat="1">
+    <row r="45" spans="1:4" s="5" customFormat="1">
+      <c r="A45">
+        <v>44</v>
+      </c>
       <c r="B45" s="7" t="s">
         <v>60</v>
       </c>
@@ -2584,7 +3031,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>45</v>
+      </c>
       <c r="B46" s="7" t="s">
         <v>61</v>
       </c>
@@ -2595,7 +3045,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:4" s="5" customFormat="1">
+    <row r="47" spans="1:4" s="5" customFormat="1">
+      <c r="A47">
+        <v>46</v>
+      </c>
       <c r="B47" s="7" t="s">
         <v>62</v>
       </c>
@@ -2606,7 +3059,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:4" s="5" customFormat="1" ht="19">
+    <row r="48" spans="1:4" s="5" customFormat="1" ht="19">
+      <c r="A48">
+        <v>47</v>
+      </c>
       <c r="B48" s="6" t="s">
         <v>29</v>
       </c>
@@ -2617,7 +3073,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>48</v>
+      </c>
       <c r="B49" s="3" t="s">
         <v>56</v>
       </c>
@@ -2628,7 +3087,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="19">
+    <row r="50" spans="1:4" ht="19">
+      <c r="A50">
+        <v>49</v>
+      </c>
       <c r="B50" s="2" t="s">
         <v>30</v>
       </c>
@@ -2639,7 +3101,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="19">
+    <row r="51" spans="1:4" ht="19">
+      <c r="A51">
+        <v>50</v>
+      </c>
       <c r="B51" s="2" t="s">
         <v>31</v>
       </c>
@@ -2650,7 +3115,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="19">
+    <row r="52" spans="1:4" ht="19">
+      <c r="A52">
+        <v>51</v>
+      </c>
       <c r="B52" s="2" t="s">
         <v>32</v>
       </c>
@@ -2661,7 +3129,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="19">
+    <row r="53" spans="1:4" ht="19">
+      <c r="A53">
+        <v>52</v>
+      </c>
       <c r="B53" s="2" t="s">
         <v>33</v>
       </c>
@@ -2672,7 +3143,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="19">
+    <row r="54" spans="1:4" ht="19">
+      <c r="A54">
+        <v>53</v>
+      </c>
       <c r="B54" s="2" t="s">
         <v>34</v>
       </c>
@@ -2683,7 +3157,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="19">
+    <row r="55" spans="1:4" ht="19">
+      <c r="A55">
+        <v>54</v>
+      </c>
       <c r="B55" s="2" t="s">
         <v>35</v>
       </c>
@@ -2694,7 +3171,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="18">
+    <row r="56" spans="1:4" ht="18">
+      <c r="A56">
+        <v>55</v>
+      </c>
       <c r="B56" s="1" t="s">
         <v>36</v>
       </c>
@@ -2705,7 +3185,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="18">
+    <row r="57" spans="1:4" ht="18">
+      <c r="A57">
+        <v>56</v>
+      </c>
       <c r="B57" s="1" t="s">
         <v>37</v>
       </c>
@@ -2716,7 +3199,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>57</v>
+      </c>
       <c r="B58" s="3" t="s">
         <v>40</v>
       </c>
@@ -2727,7 +3213,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>58</v>
+      </c>
       <c r="B59" s="3" t="s">
         <v>41</v>
       </c>
@@ -2738,7 +3227,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>59</v>
+      </c>
       <c r="B60" s="3" t="s">
         <v>42</v>
       </c>
@@ -2749,7 +3241,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>60</v>
+      </c>
       <c r="B61" s="3" t="s">
         <v>43</v>
       </c>
@@ -2760,7 +3255,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>61</v>
+      </c>
       <c r="B62" s="3" t="s">
         <v>44</v>
       </c>
@@ -2771,7 +3269,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>62</v>
+      </c>
       <c r="B63" s="3" t="s">
         <v>45</v>
       </c>
@@ -2782,7 +3283,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>63</v>
+      </c>
       <c r="B64" s="3" t="s">
         <v>46</v>
       </c>
@@ -2793,7 +3297,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>64</v>
+      </c>
       <c r="B65" s="3" t="s">
         <v>47</v>
       </c>
@@ -2804,7 +3311,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>65</v>
+      </c>
       <c r="B66" s="3" t="s">
         <v>49</v>
       </c>
@@ -2815,7 +3325,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="18">
+    <row r="67" spans="1:4" ht="18">
+      <c r="A67">
+        <v>66</v>
+      </c>
       <c r="B67" s="4" t="s">
         <v>51</v>
       </c>
@@ -2826,7 +3339,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>67</v>
+      </c>
       <c r="B68" s="7" t="s">
         <v>59</v>
       </c>
@@ -2837,7 +3353,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>68</v>
+      </c>
       <c r="B69" s="7" t="s">
         <v>28</v>
       </c>
@@ -2848,7 +3367,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>69</v>
+      </c>
       <c r="B70" s="7" t="s">
         <v>63</v>
       </c>
@@ -2859,7 +3381,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:4">
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>70</v>
+      </c>
       <c r="B71" s="7" t="s">
         <v>64</v>
       </c>
@@ -2870,7 +3395,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:4" ht="18">
+    <row r="72" spans="1:4" ht="18">
+      <c r="A72">
+        <v>71</v>
+      </c>
       <c r="B72" s="11" t="s">
         <v>69</v>
       </c>
@@ -2881,7 +3409,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="18">
+    <row r="73" spans="1:4" ht="18">
+      <c r="A73">
+        <v>72</v>
+      </c>
       <c r="B73" s="11" t="s">
         <v>70</v>
       </c>
@@ -2892,7 +3423,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:4" ht="18">
+    <row r="74" spans="1:4" ht="18">
+      <c r="A74">
+        <v>73</v>
+      </c>
       <c r="B74" s="11" t="s">
         <v>71</v>
       </c>
@@ -2903,7 +3437,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:4" ht="18">
+    <row r="75" spans="1:4" ht="18">
+      <c r="A75">
+        <v>74</v>
+      </c>
       <c r="B75" s="11" t="s">
         <v>72</v>
       </c>
@@ -2914,7 +3451,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:4" ht="18">
+    <row r="76" spans="1:4" ht="18">
+      <c r="A76">
+        <v>75</v>
+      </c>
       <c r="B76" s="11" t="s">
         <v>73</v>
       </c>
@@ -2925,7 +3465,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:4" ht="18">
+    <row r="77" spans="1:4" ht="18">
+      <c r="A77">
+        <v>76</v>
+      </c>
       <c r="B77" s="11" t="s">
         <v>74</v>
       </c>
@@ -2944,10 +3487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF7F340-2B9A-944D-BA97-82710375EFC1}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -3043,6 +3586,61 @@
         <v>2</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="21">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_DeepChat/Data/Excel/DesignerConfig.xlsx
+++ b/Assets/_DeepChat/Data/Excel/DesignerConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tangxin/RiderProjects/LD57/Assets/_DeepChat/Data/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BD757B-A5BC-A442-8E1C-81DD83FE0929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B584FB98-5085-ED4A-BE73-4992DE7370EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1540" windowWidth="24960" windowHeight="12120" xr2:uid="{472C8CED-FEAA-C74E-954B-785177F8A580}"/>
+    <workbookView xWindow="4440" yWindow="1540" windowWidth="24960" windowHeight="12120" activeTab="1" xr2:uid="{472C8CED-FEAA-C74E-954B-785177F8A580}"/>
   </bookViews>
   <sheets>
     <sheet name="WordSheet" sheetId="1" r:id="rId1"/>
@@ -593,13 +593,843 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ヾ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>`)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ノヾ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(´</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ノ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>゛(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᴗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)ﾉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>゛(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᴗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)ﾉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>゛(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᴗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)ﾉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(⁄ ⁄•⁄ω⁄•⁄ ⁄)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Σ(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>д</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>lll)Σ(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>д</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>lll)Σ(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>д</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>lll)Σ(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>д</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>lll)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>≧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>≦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>≧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>≦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>≧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>≦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｡･ﾟﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*(&gt;д&lt;)*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟﾟ･｡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｡･ﾟﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*(&gt;д&lt;)*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟﾟ･｡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>_(:з</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>∠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)__(:з</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>∠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)__(:з</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>∠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF18191C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)_</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">( </t>
     </r>
     <r>
@@ -802,222 +1632,57 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ) ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ծ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="4"/>
-      </rPr>
-      <t>❛</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Angsana New"/>
-        <family val="4"/>
-        <charset val="222"/>
-      </rPr>
-      <t>ั</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="4"/>
-      </rPr>
-      <t>ᴗ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>‸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ԾԾ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="4"/>
-      </rPr>
-      <t>❛</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Angsana New"/>
-        <family val="4"/>
-        <charset val="222"/>
-      </rPr>
-      <t>ั</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="4"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>⁎</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ヾ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ω</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>`)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ノヾ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(´</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ω</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ノ</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>゛(</t>
+      <t>‸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ԾԾ</t>
     </r>
     <r>
       <rPr>
@@ -1025,37 +1690,18 @@
         <color rgb="FF000000"/>
         <rFont val="Segoe UI Symbol"/>
         <family val="2"/>
-      </rPr>
-      <t>◍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ᴗ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>•</t>
+        <charset val="1"/>
+      </rPr>
+      <t>‸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ԾԾ</t>
     </r>
     <r>
       <rPr>
@@ -1063,18 +1709,18 @@
         <color rgb="FF000000"/>
         <rFont val="Segoe UI Symbol"/>
         <family val="2"/>
-      </rPr>
-      <t>◍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)ﾉ</t>
+        <charset val="1"/>
+      </rPr>
+      <t>‸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ԾԾ</t>
     </r>
     <r>
       <rPr>
@@ -1082,18 +1728,18 @@
         <color rgb="FF000000"/>
         <rFont val="Segoe UI Symbol"/>
         <family val="2"/>
-      </rPr>
-      <t>♡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>゛(</t>
+        <charset val="1"/>
+      </rPr>
+      <t>‸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ԾԾ</t>
     </r>
     <r>
       <rPr>
@@ -1101,37 +1747,18 @@
         <color rgb="FF000000"/>
         <rFont val="Segoe UI Symbol"/>
         <family val="2"/>
-      </rPr>
-      <t>◍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ᴗ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>•</t>
+        <charset val="1"/>
+      </rPr>
+      <t>‸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ԾԾ</t>
     </r>
     <r>
       <rPr>
@@ -1139,18 +1766,18 @@
         <color rgb="FF000000"/>
         <rFont val="Segoe UI Symbol"/>
         <family val="2"/>
-      </rPr>
-      <t>◍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)ﾉ</t>
+        <charset val="1"/>
+      </rPr>
+      <t>‸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ԾԾ</t>
     </r>
     <r>
       <rPr>
@@ -1158,21 +1785,18 @@
         <color rgb="FF000000"/>
         <rFont val="Segoe UI Symbol"/>
         <family val="2"/>
-      </rPr>
-      <t>♡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>゛(</t>
+        <charset val="1"/>
+      </rPr>
+      <t>‸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ԾԾ</t>
     </r>
     <r>
       <rPr>
@@ -1180,546 +1804,18 @@
         <color rgb="FF000000"/>
         <rFont val="Segoe UI Symbol"/>
         <family val="2"/>
-      </rPr>
-      <t>◍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ᴗ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>◍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>)ﾉ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>♡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(⁄ ⁄•⁄ω⁄•⁄ ⁄)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Σ(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ﾟ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>д</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ﾟ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>lll)Σ(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ﾟ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>д</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ﾟ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>lll)Σ(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ﾟ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>д</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ﾟ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>lll)Σ(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ﾟ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>д</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ﾟ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>lll)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>≧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>◡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>≦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>♡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>≧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>◡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>≦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>♡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>≧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>◡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>≦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>♡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>｡･ﾟﾟ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>*(&gt;д&lt;)*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ﾟﾟ･｡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>｡･ﾟﾟ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>*(&gt;д&lt;)*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ﾟﾟ･｡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ծ‸ԾԾ‸ԾԾ‸ԾԾ‸ԾԾ‸ԾԾ‸ԾԾ‸ԾԾ‸ԾԾ‸Ծ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>_(:з</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF18191C"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF18191C"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>∠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF18191C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)__(:з</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF18191C"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF18191C"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>∠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF18191C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)__(:з</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF18191C"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF18191C"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>∠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF18191C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)_</t>
+        <charset val="1"/>
+      </rPr>
+      <t>‸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ծ</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1728,7 +1824,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1814,14 +1910,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="4"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="4"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1984,6 +2072,19 @@
       <name val="Cambria Math"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2011,11 +2112,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2023,11 +2127,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2041,19 +2145,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2392,7 +2493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518EDFA6-105A-A34F-982F-8A94BE55A519}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
@@ -3489,8 +3590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF7F340-2B9A-944D-BA97-82710375EFC1}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -3520,7 +3621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3536,7 +3637,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -3547,7 +3648,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3558,7 +3659,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3569,7 +3670,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3580,7 +3681,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -3591,7 +3692,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3602,7 +3703,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -3619,12 +3720,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18">
+    <row r="12" spans="1:3" ht="21">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -3635,7 +3736,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>2</v>

--- a/Assets/_DeepChat/Data/Excel/DesignerConfig.xlsx
+++ b/Assets/_DeepChat/Data/Excel/DesignerConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tangxin/RiderProjects/LD57/Assets/_DeepChat/Data/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B584FB98-5085-ED4A-BE73-4992DE7370EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1187C9DF-57D7-7848-BDA0-0892BF1C66A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1540" windowWidth="24960" windowHeight="12120" activeTab="1" xr2:uid="{472C8CED-FEAA-C74E-954B-785177F8A580}"/>
+    <workbookView xWindow="4440" yWindow="1540" windowWidth="24960" windowHeight="12120" xr2:uid="{472C8CED-FEAA-C74E-954B-785177F8A580}"/>
   </bookViews>
   <sheets>
     <sheet name="WordSheet" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>Emotion</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1819,12 +1819,206 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‍(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>┬┬﹏┬┬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)‍(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>┬┬﹏┬┬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2084,6 +2278,13 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2493,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518EDFA6-105A-A34F-982F-8A94BE55A519}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -3588,10 +3789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF7F340-2B9A-944D-BA97-82710375EFC1}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -3742,6 +3943,50 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14" spans="1:3" ht="18">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="21">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_DeepChat/Data/Excel/DesignerConfig.xlsx
+++ b/Assets/_DeepChat/Data/Excel/DesignerConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tangxin/RiderProjects/LD57/Assets/_DeepChat/Data/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1187C9DF-57D7-7848-BDA0-0892BF1C66A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B609A042-640A-DD4D-901F-72D3543A1056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1540" windowWidth="24960" windowHeight="12120" xr2:uid="{472C8CED-FEAA-C74E-954B-785177F8A580}"/>
+    <workbookView xWindow="4440" yWindow="1540" windowWidth="24960" windowHeight="12120" activeTab="1" xr2:uid="{472C8CED-FEAA-C74E-954B-785177F8A580}"/>
   </bookViews>
   <sheets>
     <sheet name="WordSheet" sheetId="1" r:id="rId1"/>
@@ -1638,6 +1638,200 @@
   </si>
   <si>
     <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‍(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>┬┬﹏┬┬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)‍(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>┬┬﹏┬┬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="14"/>
         <color rgb="FF000000"/>
@@ -1663,7 +1857,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>ԾԾ</t>
+      <t>Ծ  Ծ</t>
     </r>
     <r>
       <rPr>
@@ -1682,7 +1876,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>ԾԾ</t>
+      <t>Ծ  Ծ</t>
     </r>
     <r>
       <rPr>
@@ -1701,7 +1895,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>ԾԾ</t>
+      <t>Ծ  Ծ</t>
     </r>
     <r>
       <rPr>
@@ -1720,7 +1914,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>ԾԾ</t>
+      <t>Ծ  Ծ</t>
     </r>
     <r>
       <rPr>
@@ -1739,7 +1933,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>ԾԾ</t>
+      <t>Ծ  Ծ</t>
     </r>
     <r>
       <rPr>
@@ -1758,258 +1952,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>ԾԾ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>‸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>ԾԾ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>‸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>ԾԾ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>‸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
       <t>Ծ</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>✧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ω</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>✧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>✧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ω</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>✧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>✧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ω</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>✧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>✧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ω</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>✧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>‍(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>┬┬﹏┬┬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)‍(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>┬┬﹏┬┬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2694,8 +2637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518EDFA6-105A-A34F-982F-8A94BE55A519}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -3791,8 +3734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF7F340-2B9A-944D-BA97-82710375EFC1}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -3926,7 +3869,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -3970,7 +3913,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3981,7 +3924,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17">
         <v>2</v>

--- a/Assets/_DeepChat/Data/Excel/DesignerConfig.xlsx
+++ b/Assets/_DeepChat/Data/Excel/DesignerConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tangxin/RiderProjects/LD57/Assets/_DeepChat/Data/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B609A042-640A-DD4D-901F-72D3543A1056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4777DBFC-1463-CF41-A6CF-7EA743E64AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1540" windowWidth="24960" windowHeight="12120" activeTab="1" xr2:uid="{472C8CED-FEAA-C74E-954B-785177F8A580}"/>
+    <workbookView xWindow="4440" yWindow="1540" windowWidth="24960" windowHeight="12120" xr2:uid="{472C8CED-FEAA-C74E-954B-785177F8A580}"/>
   </bookViews>
   <sheets>
     <sheet name="WordSheet" sheetId="1" r:id="rId1"/>
@@ -78,99 +78,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>๑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>❛ᴗ❛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>๑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) ( ❛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ั</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ᴗ❛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ั</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⁎ )</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>(=</t>
     </r>
     <r>
@@ -392,9 +299,6 @@
   </si>
   <si>
     <t>- ̗̀(๑ᵔ⌔ᵔ๑)εïз</t>
-  </si>
-  <si>
-    <t>(๑ơ ₃ ơ)♥ ♡(˃͈ દ ˂͈ ༶ )</t>
   </si>
   <si>
     <t>૮(˶ᵔ ᵕ ᵔ˶)ა</t>
@@ -1953,6 +1857,213 @@
         <family val="2"/>
       </rPr>
       <t>Ծ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Angsana New"/>
+        <family val="2"/>
+        <charset val="222"/>
+      </rPr>
+      <t>๑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>ơ ₃ ơ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>♥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(˃͈ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Gujarati Sangam MN"/>
+        <family val="2"/>
+      </rPr>
+      <t>દ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ˂͈  )</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Angsana New"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>๑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>❛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ᴗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>❛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Angsana New"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>๑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>❛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Angsana New"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ั</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ᴗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>❛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Angsana New"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ั</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1961,7 +2072,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39">
+  <fonts count="46">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2226,6 +2337,52 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Angsana New"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Apple Color Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Gujarati Sangam MN"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Angsana New"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -2637,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518EDFA6-105A-A34F-982F-8A94BE55A519}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2693,7 +2850,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2707,7 +2864,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2721,7 +2878,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2735,7 +2892,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2749,7 +2906,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2772,12 +2929,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="18">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2786,12 +2943,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20">
+    <row r="11" spans="1:4" ht="31">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2805,7 +2962,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2819,7 +2976,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2833,7 +2990,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2847,7 +3004,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2861,7 +3018,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2875,7 +3032,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2889,7 +3046,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2903,7 +3060,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2917,7 +3074,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="8">
         <v>1</v>
@@ -2931,7 +3088,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
@@ -2945,7 +3102,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="8">
         <v>1</v>
@@ -2959,7 +3116,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="8">
         <v>1</v>
@@ -2973,7 +3130,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="8">
         <v>1</v>
@@ -2987,7 +3144,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="8">
         <v>1</v>
@@ -3001,7 +3158,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="8">
         <v>1</v>
@@ -3015,7 +3172,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="8">
         <v>1</v>
@@ -3029,7 +3186,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="8">
         <v>1</v>
@@ -3043,7 +3200,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -3057,7 +3214,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
@@ -3071,7 +3228,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="8">
         <v>1</v>
@@ -3085,7 +3242,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="8">
         <v>1</v>
@@ -3099,7 +3256,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="8">
         <v>1</v>
@@ -3113,7 +3270,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="8">
         <v>1</v>
@@ -3127,7 +3284,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="8">
         <v>1</v>
@@ -3141,7 +3298,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
@@ -3155,7 +3312,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="8">
         <v>1</v>
@@ -3169,7 +3326,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
@@ -3183,7 +3340,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="8">
         <v>1</v>
@@ -3197,7 +3354,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="8">
         <v>1</v>
@@ -3211,7 +3368,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="8">
         <v>1</v>
@@ -3225,7 +3382,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="8">
         <v>1</v>
@@ -3239,7 +3396,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="8">
         <v>1</v>
@@ -3253,7 +3410,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="8">
         <v>1</v>
@@ -3267,7 +3424,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="8">
         <v>1</v>
@@ -3281,7 +3438,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="8">
         <v>1</v>
@@ -3295,7 +3452,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="8">
         <v>1</v>
@@ -3309,7 +3466,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" s="8">
         <v>2</v>
@@ -3323,7 +3480,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="8">
         <v>2</v>
@@ -3337,7 +3494,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" s="8">
         <v>2</v>
@@ -3351,7 +3508,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" s="8">
         <v>2</v>
@@ -3365,7 +3522,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" s="8">
         <v>2</v>
@@ -3379,7 +3536,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C53" s="8">
         <v>2</v>
@@ -3393,7 +3550,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C54" s="8">
         <v>2</v>
@@ -3407,7 +3564,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55" s="8">
         <v>2</v>
@@ -3421,7 +3578,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" s="8">
         <v>2</v>
@@ -3435,7 +3592,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" s="8">
         <v>2</v>
@@ -3449,7 +3606,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" s="8">
         <v>2</v>
@@ -3463,7 +3620,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C59" s="8">
         <v>2</v>
@@ -3477,7 +3634,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C60" s="8">
         <v>2</v>
@@ -3491,7 +3648,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61" s="8">
         <v>2</v>
@@ -3505,7 +3662,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" s="8">
         <v>2</v>
@@ -3519,7 +3676,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C63" s="8">
         <v>2</v>
@@ -3533,7 +3690,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C64" s="8">
         <v>2</v>
@@ -3547,7 +3704,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C65" s="8">
         <v>2</v>
@@ -3561,7 +3718,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" s="8">
         <v>2</v>
@@ -3575,7 +3732,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C67" s="8">
         <v>2</v>
@@ -3589,7 +3746,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C68" s="8">
         <v>2</v>
@@ -3603,7 +3760,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C69" s="8">
         <v>2</v>
@@ -3617,7 +3774,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C70" s="8">
         <v>2</v>
@@ -3631,7 +3788,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C71" s="8">
         <v>2</v>
@@ -3645,7 +3802,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C72" s="8">
         <v>2</v>
@@ -3659,7 +3816,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C73" s="8">
         <v>2</v>
@@ -3673,7 +3830,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C74" s="8">
         <v>2</v>
@@ -3687,7 +3844,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C75" s="8">
         <v>2</v>
@@ -3701,7 +3858,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C76" s="8">
         <v>2</v>
@@ -3715,7 +3872,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C77" s="8">
         <v>2</v>
@@ -3734,7 +3891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF7F340-2B9A-944D-BA97-82710375EFC1}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -3759,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -3770,7 +3927,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3781,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -3792,7 +3949,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3803,7 +3960,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3814,7 +3971,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3825,7 +3982,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -3836,7 +3993,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3847,7 +4004,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -3858,7 +4015,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -3869,7 +4026,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -3880,7 +4037,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -3891,7 +4048,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3902,7 +4059,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3913,7 +4070,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3924,7 +4081,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C17">
         <v>2</v>

--- a/Assets/_DeepChat/Data/Excel/DesignerConfig.xlsx
+++ b/Assets/_DeepChat/Data/Excel/DesignerConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tangxin/RiderProjects/LD57/Assets/_DeepChat/Data/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4777DBFC-1463-CF41-A6CF-7EA743E64AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011B9862-CB44-1145-8889-498A16A1BE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="1540" windowWidth="24960" windowHeight="12120" xr2:uid="{472C8CED-FEAA-C74E-954B-785177F8A580}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
   <si>
     <t>Emotion</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2064,6 +2064,139 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> )</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(*°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>▽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>°*)(*°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>▽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>°*)(*°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>▽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>°*)(*°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>▽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>°*)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(^з^)-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>☆～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(^з^)-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>☆～</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2794,8 +2927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518EDFA6-105A-A34F-982F-8A94BE55A519}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -3889,10 +4022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF7F340-2B9A-944D-BA97-82710375EFC1}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -4087,6 +4220,61 @@
         <v>2</v>
       </c>
     </row>
+    <row r="18" spans="1:3" ht="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
